--- a/17. LinkedIn Learning/01. Microsoft Excel/01. Master Microsoft Excel - Learning Path/06. Excel - PivotTables in depth/Material/Ex_Files_Excel_Pivot_Tables_Depth/Exercise Files/Chapter05/Highlight_05_01.xlsx
+++ b/17. LinkedIn Learning/01. Microsoft Excel/01. Master Microsoft Excel - Learning Path/06. Excel - PivotTables in depth/Material/Ex_Files_Excel_Pivot_Tables_Depth/Exercise Files/Chapter05/Highlight_05_01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Curtis\Documents\LinkedIn Learning\Excel for O365 PivotTables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javier García\Downloads\Excel\Learning path 01\06\Modulo 02\Ex_Files_Excel_Pivot_Tables_Depth\Ex_Files_Excel_Pivot_Tables_Depth\Exercise Files\Chapter05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6913A193-434C-4364-9668-7B5721A77BA9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BEF314-1756-4B9C-9329-12B0271E9F1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7350" xr2:uid="{2E5CF44E-A048-4B93-98D9-BFC521C6FDBF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2E5CF44E-A048-4B93-98D9-BFC521C6FDBF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
   </definedNames>
   <calcPr calcId="179021" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1446" uniqueCount="255">
   <si>
     <t>OrderNum</t>
   </si>
@@ -785,13 +785,28 @@
     <t>Category</t>
   </si>
   <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
     <t>Sum of Total Price</t>
   </si>
   <si>
-    <t>Wind harvester Total</t>
+    <t>Etiquetas de fila</t>
+  </si>
+  <si>
+    <t>Total Batteries</t>
+  </si>
+  <si>
+    <t>Total Grid Tie Inverters</t>
+  </si>
+  <si>
+    <t>Total Landscape lighting</t>
+  </si>
+  <si>
+    <t>Total Lightbulbs</t>
+  </si>
+  <si>
+    <t>Total Solar panels</t>
+  </si>
+  <si>
+    <t>Total Wind harvester</t>
   </si>
 </sst>
 </file>
@@ -799,7 +814,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -848,13 +863,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{453ECAE6-7D8F-4077-9B1E-7EAF2BE3F477}"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -862,10 +887,10 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -4889,8 +4914,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6223BFF3-72F3-498B-873F-ADFE229340AC}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6223BFF3-72F3-498B-873F-ADFE229340AC}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B67" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
@@ -4916,11 +4941,11 @@
     </pivotField>
     <pivotField axis="axisRow" subtotalTop="0" showAll="0">
       <items count="7">
-        <item h="1" x="2"/>
-        <item h="1" x="1"/>
-        <item h="1" x="5"/>
-        <item h="1" x="3"/>
-        <item h="1" x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="0"/>
         <item x="4"/>
         <item t="default"/>
       </items>
@@ -5321,7 +5346,172 @@
     <field x="4"/>
     <field x="5"/>
   </rowFields>
-  <rowItems count="9">
+  <rowItems count="64">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="21"/>
+    </i>
+    <i r="1">
+      <x v="23"/>
+    </i>
+    <i r="1">
+      <x v="31"/>
+    </i>
+    <i r="1">
+      <x v="32"/>
+    </i>
+    <i r="1">
+      <x v="33"/>
+    </i>
+    <i r="1">
+      <x v="34"/>
+    </i>
+    <i t="default">
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="46"/>
+    </i>
+    <i r="1">
+      <x v="47"/>
+    </i>
+    <i r="1">
+      <x v="48"/>
+    </i>
+    <i r="1">
+      <x v="49"/>
+    </i>
+    <i r="1">
+      <x v="50"/>
+    </i>
+    <i r="1">
+      <x v="51"/>
+    </i>
+    <i t="default">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="42"/>
+    </i>
+    <i r="1">
+      <x v="43"/>
+    </i>
+    <i r="1">
+      <x v="44"/>
+    </i>
+    <i r="1">
+      <x v="45"/>
+    </i>
+    <i t="default">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="14"/>
+    </i>
+    <i r="1">
+      <x v="28"/>
+    </i>
+    <i r="1">
+      <x v="29"/>
+    </i>
+    <i r="1">
+      <x v="30"/>
+    </i>
+    <i t="default">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="15"/>
+    </i>
+    <i r="1">
+      <x v="16"/>
+    </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
+    <i r="1">
+      <x v="18"/>
+    </i>
+    <i r="1">
+      <x v="19"/>
+    </i>
+    <i r="1">
+      <x v="20"/>
+    </i>
+    <i r="1">
+      <x v="22"/>
+    </i>
+    <i r="1">
+      <x v="24"/>
+    </i>
+    <i r="1">
+      <x v="25"/>
+    </i>
+    <i r="1">
+      <x v="26"/>
+    </i>
+    <i r="1">
+      <x v="27"/>
+    </i>
+    <i t="default">
+      <x v="4"/>
+    </i>
     <i>
       <x v="5"/>
     </i>
@@ -5354,8 +5544,22 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Total Price" fld="9" baseField="4" baseItem="0" numFmtId="44"/>
+    <dataField name="Sum of Total Price" fld="9" baseField="4" baseItem="0" numFmtId="164"/>
   </dataFields>
+  <conditionalFormats count="1">
+    <conditionalFormat scope="field" priority="1">
+      <pivotAreas count="1">
+        <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="5" count="0" selected="0"/>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+  </conditionalFormats>
   <pivotTableStyleInfo name="PivotStyleMedium8" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -5375,23 +5579,23 @@
     <sortCondition ref="D1:D275"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="9" xr3:uid="{DAD59615-226B-4A22-8326-9B63E8DF9B64}" name="OrderNum" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{A4CD1EFF-21D3-4004-B505-8B16F2E14272}" name="CustFullName" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{9FAAFF6D-9EFB-40D0-96FC-A9DC2AC13BB8}" name="State" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{9810CF2E-978C-4486-BDB9-58C9BAEECE63}" name="Date of Purchase" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{23982B9B-C2D3-4D47-9BFB-4D707B15B62E}" name="Category" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{DAD59615-226B-4A22-8326-9B63E8DF9B64}" name="OrderNum" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{A4CD1EFF-21D3-4004-B505-8B16F2E14272}" name="CustFullName" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{9FAAFF6D-9EFB-40D0-96FC-A9DC2AC13BB8}" name="State" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{9810CF2E-978C-4486-BDB9-58C9BAEECE63}" name="Date of Purchase" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{23982B9B-C2D3-4D47-9BFB-4D707B15B62E}" name="Category" dataDxfId="3"/>
     <tableColumn id="5" xr3:uid="{B2635F67-BF90-4DBF-8F83-49BD22B87B81}" name="SKU"/>
     <tableColumn id="6" xr3:uid="{212BE5BE-EE72-4FEF-A648-FA7B4E165F07}" name="ProductName"/>
-    <tableColumn id="7" xr3:uid="{419E986C-8A16-491D-BA18-7E929CAD566B}" name="Quantity" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{419E986C-8A16-491D-BA18-7E929CAD566B}" name="Quantity" dataDxfId="2"/>
     <tableColumn id="8" xr3:uid="{B5B19F64-0A61-4C35-A8BD-8503D4E0B8A4}" name="Unit Price"/>
-    <tableColumn id="1" xr3:uid="{4B774375-693C-434C-9180-F03D73BB7731}" name="Total Price" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{4B774375-693C-434C-9180-F03D73BB7731}" name="Total Price" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5687,16 +5891,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2D221A-1F93-4E8D-B1BD-A9CD4616FBDE}">
-  <dimension ref="A3:B12"/>
+  <dimension ref="A3:B67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B5" sqref="B5:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11.42578125" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
@@ -5770,83 +5974,518 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B3" t="s">
         <v>247</v>
-      </c>
-      <c r="B3" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B4" s="6"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="B5" s="6">
-        <v>26329</v>
+        <v>162259</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B6" s="6">
-        <v>101640</v>
+        <v>192521</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="B7" s="6">
-        <v>39068</v>
+        <v>330440</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B8" s="6">
-        <v>45139</v>
+        <v>529533</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>177</v>
+        <v>41</v>
       </c>
       <c r="B9" s="6">
-        <v>43392</v>
+        <v>1062.8499999999999</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="B10" s="6">
-        <v>47476</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" s="6">
+        <v>1148.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="6">
+        <v>939.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B13" s="6">
+        <v>1219092.7500000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B14" s="6"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="6">
+        <v>1172788</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B16" s="6">
+        <v>1100075</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="6">
+        <v>116476</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="6">
+        <v>226722</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="6">
+        <v>396530</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="6">
+        <v>574332</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B21" s="6">
+        <v>3586923</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B22" s="6"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="6">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="6">
+        <v>1639.9800000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B25" s="6">
+        <v>3301.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="6">
+        <v>3308.32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B27" s="6">
+        <v>8961.7000000000007</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B28" s="6"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="6">
+        <v>68.12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B30" s="6">
+        <v>215.15000000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="6">
+        <v>958.25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B32" s="6">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="6">
+        <v>576.65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="6">
+        <v>1563.6000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="6">
+        <v>1131.6000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" s="6">
+        <v>2325</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="6">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" s="6">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" s="6">
+        <v>65.599999999999994</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" s="6">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B41" s="6">
+        <v>11108.970000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B42" s="6"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43" s="6">
+        <v>1562.45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B44" s="6">
+        <v>20525</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B45" s="6">
+        <v>28296</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B46" s="6">
+        <v>10166</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B47" s="6">
+        <v>8407.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B48" s="6">
+        <v>18480</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B49" s="6">
+        <v>6347.25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B50" s="6">
+        <v>12744</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B51" s="6">
+        <v>5767.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B52" s="6">
+        <v>49140.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B53" s="6">
+        <v>43833.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54" s="6">
+        <v>3078.4500000000003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B55" s="6">
+        <v>39537.75</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" s="6">
+        <v>21652.14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B57" s="6">
+        <v>25568</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B58" s="6">
+        <v>295106.04000000004</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B59" s="6"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B60" s="6">
+        <v>26329</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" s="6">
+        <v>101640</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B62" s="6">
+        <v>39068</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B63" s="6">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B64" s="6">
+        <v>43392</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B65" s="6">
+        <v>47476</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B66" s="6">
         <v>3999</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="B12" s="6">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B67" s="6">
         <v>307043</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting pivot="1" sqref="B5:B12 B15:B20 B23:B26 B29:B40 B43:B57 B60:B66">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>40000</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
@@ -5860,7 +6499,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
     <col min="2" max="2" width="18.140625" customWidth="1"/>
